--- a/Group14-A2/src/main/java/User/DriverData.xlsx
+++ b/Group14-A2/src/main/java/User/DriverData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\javafx-restaurant-app\Group14-A2\src\main\java\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFAC2F4-4CED-4E94-A443-F2A153EA451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563591A3-787E-4127-A76D-0BDA5A261199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>User ID</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Total Hours</t>
+  </si>
+  <si>
+    <t>Active Status</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:XFD2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,7 +413,7 @@
     <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,6 +437,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Group14-A2/src/main/java/User/DriverData.xlsx
+++ b/Group14-A2/src/main/java/User/DriverData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\javafx-restaurant-app\Group14-A2\src\main\java\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563591A3-787E-4127-A76D-0BDA5A261199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C909AB-C439-4452-B055-8D21B6E38FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>User ID</t>
   </si>
@@ -47,12 +47,19 @@
   </si>
   <si>
     <t>Active Status</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>Driver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,19 +405,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -442,6 +452,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group14-A2/src/main/java/User/DriverData.xlsx
+++ b/Group14-A2/src/main/java/User/DriverData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>User ID</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Driver</t>
+  </si>
+  <si>
+    <t>testdriver@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
   </si>
 </sst>
 </file>
@@ -405,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -413,14 +419,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.9765625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.7421875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.5859375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.98828125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -481,6 +487,35 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Group14-A2/src/main/java/User/DriverData.xlsx
+++ b/Group14-A2/src/main/java/User/DriverData.xlsx
@@ -507,7 +507,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H3" t="n">
         <v>20.0</v>

--- a/Group14-A2/src/main/java/User/DriverData.xlsx
+++ b/Group14-A2/src/main/java/User/DriverData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>User ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -411,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
@@ -516,6 +522,35 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
